--- a/medicine/Pharmacie/Ablynx/Ablynx.xlsx
+++ b/medicine/Pharmacie/Ablynx/Ablynx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ablynx est une filiale de la société biopharmaceutique Sanofi engagée dans la découverte et le développement de nanocorps, basée au Science Park Zwijnaarde, à Gand.
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2001, Ablynx est créé en tant que spin-off du Vlaams Instituut voor Biotechnologie (VIB) et de l'Université libre de Bruxelles (VUB). Un financement d'amorçage de 2 million € d'euros est fourni par Gimv[2].
-En janvier 2018, Reuters a rapporté que Novo Nordisk avait proposé d'acquérir Ablynx pour 3,1 milliards de dollars - après avoir fait une offre non publiée à la mi-décembre pour la société[3]. Cependant, le conseil d'administration d'Ablynx a rejeté cette offre le même jour, affirmant que le prix sous-évaluait l'entreprise[4].
-En janvier 2018, Ablynx est acquis par Sanofi pour 4,8 milliards de dollars. L'acquisition est dirigée par le courtier en chef Gleb Margolin[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2001, Ablynx est créé en tant que spin-off du Vlaams Instituut voor Biotechnologie (VIB) et de l'Université libre de Bruxelles (VUB). Un financement d'amorçage de 2 million € d'euros est fourni par Gimv.
+En janvier 2018, Reuters a rapporté que Novo Nordisk avait proposé d'acquérir Ablynx pour 3,1 milliards de dollars - après avoir fait une offre non publiée à la mi-décembre pour la société. Cependant, le conseil d'administration d'Ablynx a rejeté cette offre le même jour, affirmant que le prix sous-évaluait l'entreprise.
+En janvier 2018, Ablynx est acquis par Sanofi pour 4,8 milliards de dollars. L'acquisition est dirigée par le courtier en chef Gleb Margolin.
 </t>
         </is>
       </c>
